--- a/raw_data/20200818_saline/20200818_Sensor2_Test_2.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_2.xlsx
@@ -1,1022 +1,1438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43FA6B-3481-457C-9465-A0DB9B49A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>1271.850647</v>
       </c>
       <c r="B2" s="1">
-        <v>0.353292</v>
+        <v>0.35329199999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1241.870000</v>
+        <v>1241.8699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-311.193000</v>
+        <v>-311.19299999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1282.211082</v>
       </c>
       <c r="G2" s="1">
-        <v>0.356170</v>
+        <v>0.35616999999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1267.910000</v>
+        <v>1267.9100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-269.308000</v>
+        <v>-269.30799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>1292.672204</v>
       </c>
       <c r="L2" s="1">
-        <v>0.359076</v>
+        <v>0.35907600000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.300000</v>
+        <v>1304.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-205.857000</v>
+        <v>-205.857</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1303.501357</v>
+        <v>1303.5013570000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.362084</v>
+        <v>0.36208400000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.901000</v>
+        <v>-186.90100000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>1313.746752</v>
       </c>
       <c r="V2" s="1">
-        <v>0.364930</v>
+        <v>0.36492999999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.330000</v>
+        <v>1329.33</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.887000</v>
+        <v>-172.887</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1324.273345</v>
+        <v>1324.2733450000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.367854</v>
+        <v>0.36785400000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.820000</v>
+        <v>1346.82</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.485000</v>
+        <v>-170.48500000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>1334.568277</v>
+        <v>1334.5682770000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.370713</v>
+        <v>0.37071300000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.084000</v>
+        <v>-180.084</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>1344.630625</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.373509</v>
+        <v>0.37350899999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.070000</v>
+        <v>1380.07</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.985000</v>
+        <v>-209.98500000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>1354.873002</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.376354</v>
+        <v>0.37635400000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR2" s="1">
-        <v>-254.031000</v>
+        <v>-254.03100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>1365.521611</v>
+        <v>1365.5216109999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.379312</v>
+        <v>0.37931199999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1425.910000</v>
+        <v>1425.91</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.318000</v>
+        <v>-314.31799999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>1376.164766</v>
+        <v>1376.1647660000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>0.382268</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.950000</v>
+        <v>1444.95</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.802000</v>
+        <v>-366.80200000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>1387.600030</v>
+        <v>1387.6000300000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.385444</v>
+        <v>0.38544400000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.600000</v>
+        <v>1528.6</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.273000</v>
+        <v>-618.27300000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1398.601323</v>
+        <v>1398.6013230000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.388500</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1680.040000</v>
+        <v>1680.04</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1071.860000</v>
+        <v>-1071.8599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>1409.335218</v>
+        <v>1409.3352179999999</v>
       </c>
       <c r="BO2" s="1">
         <v>0.391482</v>
       </c>
       <c r="BP2" s="1">
-        <v>1971.270000</v>
+        <v>1971.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1862.870000</v>
+        <v>-1862.87</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>1419.686756</v>
+        <v>1419.6867560000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.394357</v>
+        <v>0.39435700000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2359.260000</v>
+        <v>2359.2600000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2781.600000</v>
+        <v>-2781.6</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>1430.478181</v>
+        <v>1430.4781809999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.397355</v>
+        <v>0.39735500000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2842.620000</v>
+        <v>2842.62</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3786.980000</v>
+        <v>-3786.98</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>1442.108908</v>
+        <v>1442.1089079999999</v>
       </c>
       <c r="CD2" s="1">
         <v>0.400586</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.760000</v>
+        <v>4280.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6240.670000</v>
+        <v>-6240.67</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>1272.208262</v>
+        <v>1272.2082620000001</v>
       </c>
       <c r="B3" s="1">
-        <v>0.353391</v>
+        <v>0.35339100000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="D3" s="1">
-        <v>-311.516000</v>
+        <v>-311.51600000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1282.583615</v>
       </c>
       <c r="G3" s="1">
-        <v>0.356273</v>
+        <v>0.35627300000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.200000</v>
+        <v>1268.2</v>
       </c>
       <c r="I3" s="1">
-        <v>-269.298000</v>
+        <v>-269.298</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>1293.365644</v>
       </c>
       <c r="L3" s="1">
-        <v>0.359268</v>
+        <v>0.35926799999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-205.489000</v>
+        <v>-205.489</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1303.611996</v>
+        <v>1303.6119960000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.362114</v>
+        <v>0.36211399999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.070000</v>
+        <v>1316.07</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.896000</v>
+        <v>-186.89599999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1314.161375</v>
+        <v>1314.1613749999999</v>
       </c>
       <c r="V3" s="1">
-        <v>0.365045</v>
+        <v>0.36504500000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.220000</v>
+        <v>1329.22</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.893000</v>
+        <v>-172.893</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1324.623985</v>
+        <v>1324.6239849999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.367951</v>
+        <v>0.36795099999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.600000</v>
+        <v>1346.6</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.417000</v>
+        <v>-170.417</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1334.913492</v>
+        <v>1334.9134919999999</v>
       </c>
       <c r="AF3" s="1">
         <v>0.370809</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.490000</v>
+        <v>1359.49</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.102000</v>
+        <v>-180.102</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>1345.012534</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.373615</v>
+        <v>0.37361499999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.060000</v>
+        <v>1380.06</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.990000</v>
+        <v>-209.99</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1355.280218</v>
+        <v>1355.2802180000001</v>
       </c>
       <c r="AP3" s="1">
         <v>0.376467</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.570000</v>
+        <v>1401.57</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.994000</v>
+        <v>-253.994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>1365.945691</v>
+        <v>1365.9456909999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.379429</v>
+        <v>0.37942900000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1425.920000</v>
+        <v>1425.92</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.305000</v>
+        <v>-314.30500000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1376.599758</v>
+        <v>1376.5997580000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.382389</v>
+        <v>0.38238899999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.890000</v>
+        <v>-366.89</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>1387.962111</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.385545</v>
+        <v>0.38554500000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.570000</v>
+        <v>1528.57</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.328000</v>
+        <v>-618.32799999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>1398.981231</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.388606</v>
+        <v>0.38860600000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1679.950000</v>
+        <v>1679.95</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1071.940000</v>
+        <v>-1071.94</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1409.769745</v>
+        <v>1409.7697450000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.391603</v>
+        <v>0.39160299999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1970.810000</v>
+        <v>1970.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1863.000000</v>
+        <v>-1863</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>1420.187683</v>
+        <v>1420.1876830000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.394497</v>
+        <v>0.39449699999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2359.070000</v>
+        <v>2359.0700000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2782.280000</v>
+        <v>-2782.28</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>1430.944422</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.397485</v>
+        <v>0.39748499999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2842.120000</v>
+        <v>2842.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3787.120000</v>
+        <v>-3787.12</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>1442.645078</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.400735</v>
+        <v>0.40073500000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4279.030000</v>
+        <v>4279.03</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6218.540000</v>
+        <v>-6218.54</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>1272.866950</v>
+        <v>1272.8669500000001</v>
       </c>
       <c r="B4" s="1">
         <v>0.353574</v>
       </c>
       <c r="C4" s="1">
-        <v>1241.830000</v>
+        <v>1241.83</v>
       </c>
       <c r="D4" s="1">
-        <v>-312.053000</v>
+        <v>-312.053</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1283.235352</v>
+        <v>1283.2353519999999</v>
       </c>
       <c r="G4" s="1">
-        <v>0.356454</v>
+        <v>0.35645399999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.010000</v>
+        <v>1268.01</v>
       </c>
       <c r="I4" s="1">
-        <v>-269.111000</v>
+        <v>-269.11099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>1293.744058</v>
@@ -1025,103 +1441,103 @@
         <v>0.359373</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-205.511000</v>
+        <v>-205.511</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1303.949740</v>
+        <v>1303.94974</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.362208</v>
+        <v>0.36220799999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.100000</v>
+        <v>1316.1</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.865000</v>
+        <v>-186.86500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>1314.506095</v>
       </c>
       <c r="V4" s="1">
-        <v>0.365141</v>
+        <v>0.36514099999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.260000</v>
+        <v>1329.26</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.015000</v>
+        <v>-173.01499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1324.973169</v>
+        <v>1324.9731690000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.368048</v>
+        <v>0.36804799999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.423000</v>
+        <v>-170.423</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>1335.256265</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.370905</v>
+        <v>0.37090499999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.027000</v>
+        <v>-180.02699999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1345.424214</v>
+        <v>1345.4242139999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.373729</v>
+        <v>0.37372899999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.030000</v>
+        <v>1380.03</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.984000</v>
+        <v>-209.98400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>1355.634857</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.376565</v>
+        <v>0.37656499999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.570000</v>
+        <v>1401.57</v>
       </c>
       <c r="AR4" s="1">
-        <v>-254.024000</v>
+        <v>-254.024</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>1366.288922</v>
@@ -1130,407 +1546,407 @@
         <v>0.379525</v>
       </c>
       <c r="AV4" s="1">
-        <v>1425.900000</v>
+        <v>1425.9</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.309000</v>
+        <v>-314.30900000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>1376.960844</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.382489</v>
+        <v>0.38248900000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.930000</v>
+        <v>1444.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.872000</v>
+        <v>-366.87200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>1388.326174</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.385646</v>
+        <v>0.38564599999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.361000</v>
+        <v>-618.36099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1399.355214</v>
+        <v>1399.3552139999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.388710</v>
+        <v>0.38871</v>
       </c>
       <c r="BK4" s="1">
-        <v>1679.950000</v>
+        <v>1679.95</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1071.960000</v>
+        <v>-1071.96</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1410.194785</v>
+        <v>1410.1947849999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.391721</v>
+        <v>0.39172099999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1970.870000</v>
+        <v>1970.87</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1863.000000</v>
+        <v>-1863</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1420.623700</v>
+        <v>1420.6237000000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.394618</v>
+        <v>0.39461800000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2359.110000</v>
+        <v>2359.11</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2782.810000</v>
+        <v>-2782.81</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1431.391072</v>
+        <v>1431.3910719999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.397609</v>
+        <v>0.39760899999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2842.800000</v>
+        <v>2842.8</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3787.710000</v>
+        <v>-3787.71</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>1443.179237</v>
+        <v>1443.1792370000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.400883</v>
+        <v>0.40088299999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4279.080000</v>
+        <v>4279.08</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6239.330000</v>
+        <v>-6239.33</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>1273.234982</v>
+        <v>1273.2349819999999</v>
       </c>
       <c r="B5" s="1">
-        <v>0.353676</v>
+        <v>0.35367599999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1241.450000</v>
+        <v>1241.45</v>
       </c>
       <c r="D5" s="1">
-        <v>-312.023000</v>
+        <v>-312.02300000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1283.616248</v>
       </c>
       <c r="G5" s="1">
-        <v>0.356560</v>
+        <v>0.35655999999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.190000</v>
+        <v>1268.19</v>
       </c>
       <c r="I5" s="1">
-        <v>-269.820000</v>
+        <v>-269.82</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1294.090266</v>
+        <v>1294.0902659999999</v>
       </c>
       <c r="L5" s="1">
-        <v>0.359470</v>
+        <v>0.35947000000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="N5" s="1">
-        <v>-205.839000</v>
+        <v>-205.839</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1304.297970</v>
+        <v>1304.2979700000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.362305</v>
+        <v>0.36230499999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.190000</v>
+        <v>1316.19</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.926000</v>
+        <v>-186.92599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>1314.847839</v>
       </c>
       <c r="V5" s="1">
-        <v>0.365236</v>
+        <v>0.36523600000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.290000</v>
+        <v>1329.29</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.922000</v>
+        <v>-172.922</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1325.405185</v>
+        <v>1325.4051850000001</v>
       </c>
       <c r="AA5" s="1">
         <v>0.368168</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.375000</v>
+        <v>-170.375</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1335.721476</v>
+        <v>1335.7214759999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.371034</v>
+        <v>0.37103399999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.049000</v>
+        <v>-180.04900000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>1345.732753</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.373815</v>
+        <v>0.37381500000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.080000</v>
+        <v>1380.08</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.964000</v>
+        <v>-209.964</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>1355.993960</v>
+        <v>1355.99396</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.376665</v>
+        <v>0.37666500000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.550000</v>
+        <v>1401.55</v>
       </c>
       <c r="AR5" s="1">
-        <v>-254.028000</v>
+        <v>-254.02799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>1366.654978</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.379626</v>
+        <v>0.37962600000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1425.890000</v>
+        <v>1425.89</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.311000</v>
+        <v>-314.31099999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>1377.318955</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.382589</v>
+        <v>0.38258900000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1444.930000</v>
+        <v>1444.93</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.866000</v>
+        <v>-366.86599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1389.048380</v>
+        <v>1389.04838</v>
       </c>
       <c r="BE5" s="1">
         <v>0.385847</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.315000</v>
+        <v>-618.31500000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>1400.130499</v>
+        <v>1400.1304990000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.388925</v>
+        <v>0.38892500000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1679.890000</v>
+        <v>1679.89</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1071.940000</v>
+        <v>-1071.94</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1410.587615</v>
+        <v>1410.5876149999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.391830</v>
+        <v>0.39183000000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1970.710000</v>
+        <v>1970.71</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1863.090000</v>
+        <v>-1863.09</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>1421.049265</v>
+        <v>1421.0492650000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.394736</v>
+        <v>0.39473599999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>2358.490000</v>
+        <v>2358.4899999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2782.920000</v>
+        <v>-2782.92</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>1431.821380</v>
+        <v>1431.8213800000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.397728</v>
+        <v>0.39772800000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2842.970000</v>
+        <v>2842.97</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3786.930000</v>
+        <v>-3786.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>1444.023209</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.401118</v>
+        <v>0.40111799999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.620000</v>
+        <v>4273.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6220.470000</v>
+        <v>-6220.47</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>1273.575733</v>
+        <v>1273.5757329999999</v>
       </c>
       <c r="B6" s="1">
         <v>0.353771</v>
       </c>
       <c r="C6" s="1">
-        <v>1241.610000</v>
+        <v>1241.6099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-311.637000</v>
+        <v>-311.637</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1283.960999</v>
+        <v>1283.9609989999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.356656</v>
+        <v>0.35665599999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.140000</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-269.613000</v>
+        <v>-269.613</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>1294.436708</v>
@@ -1539,647 +1955,647 @@
         <v>0.359566</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.210000</v>
+        <v>1304.21</v>
       </c>
       <c r="N6" s="1">
-        <v>-205.601000</v>
+        <v>-205.601</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1304.709643</v>
+        <v>1304.7096429999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.362419</v>
+        <v>0.36241899999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.070000</v>
+        <v>1316.07</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.938000</v>
+        <v>-186.93799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1315.268109</v>
+        <v>1315.2681090000001</v>
       </c>
       <c r="V6" s="1">
-        <v>0.365352</v>
+        <v>0.36535200000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.240000</v>
+        <v>1329.24</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.934000</v>
+        <v>-172.934</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>1325.687439</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.368247</v>
+        <v>0.36824699999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.410000</v>
+        <v>1346.41</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.355000</v>
+        <v>-170.35499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>1335.944211</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.371096</v>
+        <v>0.37109599999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.490000</v>
+        <v>1359.49</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.017000</v>
+        <v>-180.017</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1346.082937</v>
+        <v>1346.0829369999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.373912</v>
+        <v>0.37391200000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.060000</v>
+        <v>1380.06</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.962000</v>
+        <v>-209.96199999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1356.353591</v>
+        <v>1356.3535910000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.376765</v>
+        <v>0.37676500000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.520000</v>
+        <v>1401.52</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.976000</v>
+        <v>-253.976</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>1367.018537</v>
+        <v>1367.0185369999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.379727</v>
+        <v>0.37972699999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1425.900000</v>
+        <v>1425.9</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.306000</v>
+        <v>-314.30599999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>1378.038155</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.382788</v>
+        <v>0.38278800000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.950000</v>
+        <v>1444.95</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.855000</v>
+        <v>-366.85500000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>1389.438203</v>
+        <v>1389.4382029999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.385955</v>
+        <v>0.38595499999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.342000</v>
+        <v>-618.34199999999998</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1400.506925</v>
+        <v>1400.5069249999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.389030</v>
+        <v>0.38902999999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1679.890000</v>
+        <v>1679.89</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1071.950000</v>
+        <v>-1071.95</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1411.006239</v>
+        <v>1411.0062390000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.391946</v>
+        <v>0.39194600000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1970.730000</v>
+        <v>1970.73</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1862.990000</v>
+        <v>-1862.99</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>1421.767441</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.394935</v>
+        <v>0.39493499999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>2357.730000</v>
+        <v>2357.73</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2783.330000</v>
+        <v>-2783.33</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1432.538066</v>
+        <v>1432.5380660000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.397927</v>
+        <v>0.39792699999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2842.720000</v>
+        <v>2842.72</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3787.190000</v>
+        <v>-3787.19</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>1444.258035</v>
+        <v>1444.2580350000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.401183</v>
+        <v>0.40118300000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4277.540000</v>
+        <v>4277.54</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6217.280000</v>
+        <v>-6217.28</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>1273.913524</v>
+        <v>1273.9135240000001</v>
       </c>
       <c r="B7" s="1">
-        <v>0.353865</v>
+        <v>0.35386499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-311.684000</v>
+        <v>-311.68400000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>1284.306182</v>
       </c>
       <c r="G7" s="1">
-        <v>0.356752</v>
+        <v>0.35675200000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.210000</v>
+        <v>1268.21</v>
       </c>
       <c r="I7" s="1">
-        <v>-269.698000</v>
+        <v>-269.69799999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1294.847688</v>
+        <v>1294.8476880000001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.359680</v>
+        <v>0.35968</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="N7" s="1">
-        <v>-205.434000</v>
+        <v>-205.434</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>1305.003741</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.362501</v>
+        <v>0.36250100000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.160000</v>
+        <v>1316.16</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.972000</v>
+        <v>-186.97200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1315.538797</v>
+        <v>1315.5387969999999</v>
       </c>
       <c r="V7" s="1">
         <v>0.365427</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.220000</v>
+        <v>1329.22</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.998000</v>
+        <v>-172.99799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>1326.035633</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.368343</v>
+        <v>0.36834299999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.540000</v>
+        <v>1346.54</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1336.293362</v>
+        <v>1336.2933619999999</v>
       </c>
       <c r="AF7" s="1">
         <v>0.371193</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.080000</v>
+        <v>-180.08</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1346.433574</v>
+        <v>1346.4335739999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.374009</v>
+        <v>0.37400899999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.010000</v>
+        <v>1380.01</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.966000</v>
+        <v>-209.96600000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1357.076727</v>
+        <v>1357.0767269999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.376966</v>
+        <v>0.37696600000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.560000</v>
+        <v>1401.56</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.981000</v>
+        <v>-253.98099999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>1367.749640</v>
+        <v>1367.74964</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.379930</v>
+        <v>0.37992999999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1425.880000</v>
+        <v>1425.88</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.312000</v>
+        <v>-314.31200000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>1378.414154</v>
+        <v>1378.4141540000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.382893</v>
+        <v>0.38289299999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.900000</v>
+        <v>1444.9</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.866000</v>
+        <v>-366.86599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>1389.794862</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.386054</v>
+        <v>0.38605400000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.500000</v>
+        <v>1528.5</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.330000</v>
+        <v>-618.33000000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1400.882434</v>
+        <v>1400.8824340000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.389134</v>
+        <v>0.38913399999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1679.830000</v>
+        <v>1679.83</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1071.870000</v>
+        <v>-1071.8699999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>1411.711579</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.392142</v>
+        <v>0.39214199999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1970.550000</v>
+        <v>1970.55</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1863.010000</v>
+        <v>-1863.01</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>1421.894945</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.394971</v>
+        <v>0.39497100000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>2357.220000</v>
+        <v>2357.2199999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2783.580000</v>
+        <v>-2783.58</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>1432.695299</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.397971</v>
+        <v>0.39797100000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2842.860000</v>
+        <v>2842.86</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3786.760000</v>
+        <v>-3786.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>1444.777874</v>
+        <v>1444.7778740000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.401327</v>
+        <v>0.40132699999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4272.860000</v>
+        <v>4272.8599999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6234.590000</v>
+        <v>-6234.59</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>1274.330644</v>
+        <v>1274.3306439999999</v>
       </c>
       <c r="B8" s="1">
-        <v>0.353981</v>
+        <v>0.35398099999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.600000</v>
+        <v>1241.5999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-312.253000</v>
+        <v>-312.25299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1284.721862</v>
+        <v>1284.7218620000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.356867</v>
+        <v>0.35686699999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1267.490000</v>
+        <v>1267.49</v>
       </c>
       <c r="I8" s="1">
-        <v>-269.637000</v>
+        <v>-269.637</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1295.146250</v>
+        <v>1295.14625</v>
       </c>
       <c r="L8" s="1">
         <v>0.359763</v>
       </c>
       <c r="M8" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="N8" s="1">
-        <v>-205.825000</v>
+        <v>-205.82499999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1305.352317</v>
+        <v>1305.3523170000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.362598</v>
+        <v>0.36259799999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.040000</v>
+        <v>1316.04</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.940000</v>
+        <v>-186.94</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1315.882033</v>
+        <v>1315.8820330000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.365523</v>
+        <v>0.36552299999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.210000</v>
+        <v>1329.21</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.828000</v>
+        <v>-172.828</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1326.381311</v>
+        <v>1326.3813110000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.368439</v>
+        <v>0.36843900000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.610000</v>
+        <v>1346.61</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.507000</v>
+        <v>-170.50700000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>1336.978337</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.371383</v>
+        <v>0.37138300000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.075000</v>
+        <v>-180.07499999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>1347.129459</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.374203</v>
+        <v>0.37420300000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.060000</v>
+        <v>1380.06</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.958000</v>
+        <v>-209.958</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>1357.467576</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.377074</v>
+        <v>0.37707400000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.550000</v>
+        <v>1401.55</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.915000</v>
+        <v>-253.91499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>1368.143501</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.380040</v>
+        <v>0.38003999999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1425.900000</v>
+        <v>1425.9</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.310000</v>
+        <v>-314.31</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>1378.790123</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.382997</v>
+        <v>0.38299699999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.828000</v>
+        <v>-366.82799999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>1390.460955</v>
@@ -2188,348 +2604,348 @@
         <v>0.386239</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.520000</v>
+        <v>1528.52</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.310000</v>
+        <v>-618.30999999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>1401.560433</v>
+        <v>1401.5604330000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>0.389322</v>
       </c>
       <c r="BK8" s="1">
-        <v>1679.780000</v>
+        <v>1679.78</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1071.870000</v>
+        <v>-1071.8699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>1411.834063</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.392176</v>
+        <v>0.39217600000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1970.600000</v>
+        <v>1970.6</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1862.940000</v>
+        <v>-1862.94</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>1422.330896</v>
+        <v>1422.3308959999999</v>
       </c>
       <c r="BT8" s="1">
         <v>0.395092</v>
       </c>
       <c r="BU8" s="1">
-        <v>2356.680000</v>
+        <v>2356.6799999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2783.730000</v>
+        <v>-2783.73</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1433.117922</v>
+        <v>1433.1179219999999</v>
       </c>
       <c r="BY8" s="1">
         <v>0.398088</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2842.190000</v>
+        <v>2842.19</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3787.320000</v>
+        <v>-3787.32</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>1445.296659</v>
+        <v>1445.2966590000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.401471</v>
+        <v>0.40147100000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4270.190000</v>
+        <v>4270.1899999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6228.660000</v>
+        <v>-6228.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>1274.609396</v>
+        <v>1274.6093960000001</v>
       </c>
       <c r="B9" s="1">
-        <v>0.354058</v>
+        <v>0.35405799999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.900000</v>
+        <v>1241.9000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-312.214000</v>
+        <v>-312.214</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1285.002069</v>
+        <v>1285.0020689999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.356945</v>
+        <v>0.35694500000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.830000</v>
+        <v>1267.83</v>
       </c>
       <c r="I9" s="1">
-        <v>-269.395000</v>
+        <v>-269.39499999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>1295.491464</v>
       </c>
       <c r="L9" s="1">
-        <v>0.359859</v>
+        <v>0.35985899999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="N9" s="1">
-        <v>-205.401000</v>
+        <v>-205.40100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>1305.701114</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.362695</v>
+        <v>0.36269499999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.100000</v>
+        <v>1316.1</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.848000</v>
+        <v>-186.84800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>1316.227222</v>
       </c>
       <c r="V9" s="1">
-        <v>0.365619</v>
+        <v>0.36561900000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.310000</v>
+        <v>1329.31</v>
       </c>
       <c r="X9" s="1">
-        <v>-173.038000</v>
+        <v>-173.03800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>1327.077229</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.368633</v>
+        <v>0.36863299999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.430000</v>
+        <v>1346.43</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.427000</v>
+        <v>-170.42699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1337.320080</v>
+        <v>1337.32008</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.371478</v>
+        <v>0.37147799999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.530000</v>
+        <v>1359.53</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.007000</v>
+        <v>-180.00700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1347.476659</v>
+        <v>1347.4766589999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.374299</v>
+        <v>0.37429899999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.050000</v>
+        <v>1380.05</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.955000</v>
+        <v>-209.95500000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>1357.820757</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.377172</v>
+        <v>0.37717200000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.630000</v>
+        <v>1401.63</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.878000</v>
+        <v>-253.87799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>1368.505047</v>
+        <v>1368.5050470000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.380140</v>
+        <v>0.38013999999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1425.910000</v>
+        <v>1425.91</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.263000</v>
+        <v>-314.26299999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>1379.459193</v>
+        <v>1379.4591929999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>0.383183</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.865000</v>
+        <v>-366.86500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>1390.914298</v>
+        <v>1390.9142979999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.386365</v>
+        <v>0.38636500000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.520000</v>
+        <v>1528.52</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.264000</v>
+        <v>-618.26400000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>1401.668061</v>
+        <v>1401.6680610000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.389352</v>
+        <v>0.38935199999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1679.830000</v>
+        <v>1679.83</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1071.940000</v>
+        <v>-1071.94</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>1412.248254</v>
+        <v>1412.2482540000001</v>
       </c>
       <c r="BO9" s="1">
         <v>0.392291</v>
       </c>
       <c r="BP9" s="1">
-        <v>1970.670000</v>
+        <v>1970.67</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1862.960000</v>
+        <v>-1862.96</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>1422.759441</v>
+        <v>1422.7594409999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.395211</v>
+        <v>0.39521099999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>2355.910000</v>
+        <v>2355.91</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2782.910000</v>
+        <v>-2782.91</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>1433.569745</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.398214</v>
+        <v>0.39821400000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2841.520000</v>
+        <v>2841.52</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3787.260000</v>
+        <v>-3787.26</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1445.847247</v>
+        <v>1445.8472469999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.401624</v>
+        <v>0.40162399999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4283.330000</v>
+        <v>4283.33</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6216.750000</v>
+        <v>-6216.75</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>1274.952131</v>
       </c>
@@ -2537,13 +2953,13 @@
         <v>0.354153</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.260000</v>
+        <v>1242.26</v>
       </c>
       <c r="D10" s="1">
-        <v>-312.418000</v>
+        <v>-312.41800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1285.349269</v>
@@ -2552,103 +2968,103 @@
         <v>0.357041</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.960000</v>
+        <v>1267.96</v>
       </c>
       <c r="I10" s="1">
-        <v>-269.470000</v>
+        <v>-269.47000000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1295.843127</v>
+        <v>1295.8431270000001</v>
       </c>
       <c r="L10" s="1">
         <v>0.359956</v>
       </c>
       <c r="M10" s="1">
-        <v>1303.970000</v>
+        <v>1303.97</v>
       </c>
       <c r="N10" s="1">
-        <v>-205.539000</v>
+        <v>-205.53899999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1306.398489</v>
+        <v>1306.3984889999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.362888</v>
+        <v>0.36288799999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.110000</v>
+        <v>1316.11</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.893000</v>
+        <v>-186.893</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1316.912187</v>
+        <v>1316.9121869999999</v>
       </c>
       <c r="V10" s="1">
         <v>0.365809</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.170000</v>
+        <v>1329.17</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.941000</v>
+        <v>-172.941</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>1327.429862</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.368731</v>
+        <v>0.36873099999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.630000</v>
+        <v>1346.63</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.372000</v>
+        <v>-170.37200000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>1337.662816</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.371573</v>
+        <v>0.37157299999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.032000</v>
+        <v>-180.03200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>1347.836787</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.374399</v>
+        <v>0.37439899999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.070000</v>
+        <v>1380.07</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.944000</v>
+        <v>-209.94399999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>1358.477924</v>
@@ -2657,393 +3073,393 @@
         <v>0.377355</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.620000</v>
+        <v>1401.62</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.909000</v>
+        <v>-253.90899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>1368.951942</v>
+        <v>1368.9519419999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.380264</v>
+        <v>0.38026399999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1425.880000</v>
+        <v>1425.88</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.301000</v>
+        <v>-314.30099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>1379.875337</v>
+        <v>1379.8753369999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>0.383299</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.910000</v>
+        <v>1444.91</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.837000</v>
+        <v>-366.83699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1391.271417</v>
+        <v>1391.2714169999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.386464</v>
+        <v>0.38646399999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.550000</v>
+        <v>1528.55</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.277000</v>
+        <v>-618.27700000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>1402.026667</v>
+        <v>1402.0266670000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.389452</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1679.790000</v>
+        <v>1679.79</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1071.820000</v>
+        <v>-1071.82</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>1412.648029</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.392402</v>
+        <v>0.39240199999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1970.690000</v>
+        <v>1970.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1862.960000</v>
+        <v>-1862.96</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>1423.181039</v>
+        <v>1423.1810390000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.395328</v>
+        <v>0.39532800000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2355.390000</v>
+        <v>2355.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2782.980000</v>
+        <v>-2782.98</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>1433.998785</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.398333</v>
+        <v>0.39833299999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2842.120000</v>
+        <v>2842.12</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3787.580000</v>
+        <v>-3787.58</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>1446.377440</v>
+        <v>1446.37744</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.401772</v>
+        <v>0.40177200000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>4271.210000</v>
+        <v>4271.21</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6229.520000</v>
+        <v>-6229.52</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>1275.289938</v>
+        <v>1275.2899379999999</v>
       </c>
       <c r="B11" s="1">
-        <v>0.354247</v>
+        <v>0.35424699999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-312.026000</v>
+        <v>-312.02600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1285.692997</v>
+        <v>1285.6929970000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.357137</v>
+        <v>0.35713699999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.170000</v>
+        <v>1268.17</v>
       </c>
       <c r="I11" s="1">
-        <v>-269.276000</v>
+        <v>-269.27600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1296.533591</v>
+        <v>1296.5335909999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0.360148</v>
+        <v>0.36014800000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.250000</v>
+        <v>1304.25</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.605000</v>
+        <v>-205.60499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1306.742748</v>
+        <v>1306.7427479999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.362984</v>
+        <v>0.36298399999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.180000</v>
+        <v>1316.18</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.932000</v>
+        <v>-186.93199999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1317.255916</v>
+        <v>1317.2559160000001</v>
       </c>
       <c r="V11" s="1">
-        <v>0.365904</v>
+        <v>0.36590400000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.250000</v>
+        <v>1329.25</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.890000</v>
+        <v>-172.89</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1327.777582</v>
+        <v>1327.7775819999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.368827</v>
+        <v>0.36882700000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.384000</v>
+        <v>-170.38399999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1338.307651</v>
+        <v>1338.3076510000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.371752</v>
+        <v>0.37175200000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.051000</v>
+        <v>-180.05099999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1348.476593</v>
+        <v>1348.4765930000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.374577</v>
+        <v>0.37457699999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.010000</v>
+        <v>1380.01</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.956000</v>
+        <v>-209.95599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1358.938740</v>
+        <v>1358.9387400000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.377483</v>
+        <v>0.37748300000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.630000</v>
+        <v>1401.63</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.892000</v>
+        <v>-253.892</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>1369.238161</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.380344</v>
+        <v>0.38034400000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1425.900000</v>
+        <v>1425.9</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.310000</v>
+        <v>-314.31</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>1380.251801</v>
+        <v>1380.2518009999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.383403</v>
+        <v>0.38340299999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.920000</v>
+        <v>1444.92</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.833000</v>
+        <v>-366.83300000000003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>1391.633529</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.386565</v>
+        <v>0.38656499999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.540000</v>
+        <v>1528.54</v>
       </c>
       <c r="BG11" s="1">
-        <v>-618.261000</v>
+        <v>-618.26099999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>1402.569327</v>
+        <v>1402.5693269999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.389603</v>
+        <v>0.38960299999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1679.880000</v>
+        <v>1679.88</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1071.820000</v>
+        <v>-1071.82</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>1413.068141</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.392519</v>
+        <v>0.39251900000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1970.550000</v>
+        <v>1970.55</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1862.960000</v>
+        <v>-1862.96</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>1423.602175</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.395445</v>
+        <v>0.39544499999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2354.890000</v>
+        <v>2354.89</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2782.430000</v>
+        <v>-2782.43</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>1434.421376</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.398450</v>
+        <v>0.39845000000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2841.890000</v>
+        <v>2841.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3786.770000</v>
+        <v>-3786.77</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1446.898763</v>
+        <v>1446.8987629999999</v>
       </c>
       <c r="CD11" s="1">
         <v>0.401916</v>
       </c>
       <c r="CE11" s="1">
-        <v>4291.760000</v>
+        <v>4291.76</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6233.620000</v>
+        <v>-6233.62</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>1275.971593</v>
       </c>
@@ -3051,118 +3467,118 @@
         <v>0.354437</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.670000</v>
+        <v>1241.67</v>
       </c>
       <c r="D12" s="1">
-        <v>-312.089000</v>
+        <v>-312.089</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1286.387396</v>
+        <v>1286.3873960000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.357330</v>
+        <v>0.35732999999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.960000</v>
+        <v>1267.96</v>
       </c>
       <c r="I12" s="1">
-        <v>-269.553000</v>
+        <v>-269.553</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1296.878775</v>
+        <v>1296.8787749999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0.360244</v>
+        <v>0.36024400000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.930000</v>
+        <v>1303.93</v>
       </c>
       <c r="N12" s="1">
-        <v>-205.876000</v>
+        <v>-205.876</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>1307.095401</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.363082</v>
+        <v>0.36308200000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.110000</v>
+        <v>1316.11</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.900000</v>
+        <v>-186.9</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1317.598650</v>
+        <v>1317.5986499999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.366000</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.887000</v>
+        <v>-172.887</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>1328.423837</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.369007</v>
+        <v>0.36900699999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.367000</v>
+        <v>-170.36699999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>1338.696015</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.371860</v>
+        <v>0.37186000000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.988000</v>
+        <v>-179.988</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1348.867969</v>
+        <v>1348.8679689999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.374686</v>
+        <v>0.37468600000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.030000</v>
+        <v>1380.03</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.971000</v>
+        <v>-209.971</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>1359.300328</v>
@@ -3171,315 +3587,315 @@
         <v>0.377583</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.882000</v>
+        <v>-253.88200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>1369.602199</v>
+        <v>1369.6021989999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.380445</v>
+        <v>0.38044499999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1425.900000</v>
+        <v>1425.9</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.265000</v>
+        <v>-314.26499999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>1380.629788</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.383508</v>
+        <v>0.38350800000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.960000</v>
+        <v>1444.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.847000</v>
+        <v>-366.84699999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>1392.054600</v>
+        <v>1392.0545999999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.386682</v>
+        <v>0.38668200000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.297000</v>
+        <v>-618.29700000000003</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>1402.788523</v>
+        <v>1402.7885229999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.389663</v>
+        <v>0.38966299999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1679.830000</v>
+        <v>1679.83</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1071.810000</v>
+        <v>-1071.81</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>1413.467420</v>
+        <v>1413.4674199999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.392630</v>
+        <v>0.39262999999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1970.450000</v>
+        <v>1970.45</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1862.960000</v>
+        <v>-1862.96</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>1424.032701</v>
+        <v>1424.0327010000001</v>
       </c>
       <c r="BT12" s="1">
         <v>0.395565</v>
       </c>
       <c r="BU12" s="1">
-        <v>2354.360000</v>
+        <v>2354.36</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2782.200000</v>
+        <v>-2782.2</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>1434.891584</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.398581</v>
+        <v>0.39858100000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2842.490000</v>
+        <v>2842.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3786.730000</v>
+        <v>-3786.73</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>1447.437921</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.402066</v>
+        <v>0.40206599999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>4276.990000</v>
+        <v>4276.99</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6215.670000</v>
+        <v>-6215.67</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>1276.313682</v>
       </c>
       <c r="B13" s="1">
-        <v>0.354532</v>
+        <v>0.35453200000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.170000</v>
+        <v>1242.17</v>
       </c>
       <c r="D13" s="1">
-        <v>-312.219000</v>
+        <v>-312.21899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1286.731619</v>
+        <v>1286.7316189999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.357425</v>
+        <v>0.35742499999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.760000</v>
+        <v>1267.76</v>
       </c>
       <c r="I13" s="1">
-        <v>-268.994000</v>
+        <v>-268.99400000000003</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>1297.226469</v>
       </c>
       <c r="L13" s="1">
-        <v>0.360341</v>
+        <v>0.36034100000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-205.444000</v>
+        <v>-205.44399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1307.750087</v>
+        <v>1307.7500869999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.363264</v>
+        <v>0.36326399999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.040000</v>
+        <v>1316.04</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.933000</v>
+        <v>-186.93299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>1318.246922</v>
       </c>
       <c r="V13" s="1">
-        <v>0.366180</v>
+        <v>0.36618000000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.140000</v>
+        <v>1329.14</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.913000</v>
+        <v>-172.91300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>1328.820636</v>
+        <v>1328.8206359999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.369117</v>
+        <v>0.36911699999999997</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.340000</v>
+        <v>1346.34</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.328000</v>
+        <v>-170.328</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1339.039241</v>
+        <v>1339.0392409999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.371955</v>
+        <v>0.37195499999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.061000</v>
+        <v>-180.06100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1349.220621</v>
+        <v>1349.2206209999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.374784</v>
+        <v>0.37478400000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.040000</v>
+        <v>1380.04</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.940000</v>
+        <v>-209.94</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>1359.659425</v>
+        <v>1359.6594250000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.377683</v>
+        <v>0.37768299999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.864000</v>
+        <v>-253.864</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>1370.023328</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.380562</v>
+        <v>0.38056200000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1425.910000</v>
+        <v>1425.91</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.277000</v>
+        <v>-314.27699999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>1381.046391</v>
+        <v>1381.0463910000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.383624</v>
+        <v>0.38362400000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.910000</v>
+        <v>1444.91</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.887000</v>
+        <v>-366.887</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1392.358681</v>
+        <v>1392.3586809999999</v>
       </c>
       <c r="BE13" s="1">
         <v>0.386766</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.550000</v>
+        <v>1528.55</v>
       </c>
       <c r="BG13" s="1">
-        <v>-618.237000</v>
+        <v>-618.23699999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>1403.163002</v>
@@ -3488,255 +3904,255 @@
         <v>0.389768</v>
       </c>
       <c r="BK13" s="1">
-        <v>1679.880000</v>
+        <v>1679.88</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1071.890000</v>
+        <v>-1071.8900000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>1413.889483</v>
+        <v>1413.8894829999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.392747</v>
+        <v>0.39274700000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1970.360000</v>
+        <v>1970.36</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1862.820000</v>
+        <v>-1862.82</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>1424.443390</v>
+        <v>1424.4433899999999</v>
       </c>
       <c r="BT13" s="1">
         <v>0.395679</v>
       </c>
       <c r="BU13" s="1">
-        <v>2354.450000</v>
+        <v>2354.4499999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2781.140000</v>
+        <v>-2781.14</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>1435.632111</v>
+        <v>1435.6321109999999</v>
       </c>
       <c r="BY13" s="1">
         <v>0.398787</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2841.700000</v>
+        <v>2841.7</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3786.930000</v>
+        <v>-3786.93</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>1447.975054</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.402215</v>
+        <v>0.40221499999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4279.920000</v>
+        <v>4279.92</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6239.680000</v>
+        <v>-6239.68</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>1276.659360</v>
+        <v>1276.6593600000001</v>
       </c>
       <c r="B14" s="1">
         <v>0.354628</v>
       </c>
       <c r="C14" s="1">
-        <v>1241.850000</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-312.086000</v>
+        <v>-312.08600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>1287.390834</v>
       </c>
       <c r="G14" s="1">
-        <v>0.357609</v>
+        <v>0.35760900000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.050000</v>
+        <v>1268.05</v>
       </c>
       <c r="I14" s="1">
-        <v>-269.418000</v>
+        <v>-269.41800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1297.873285</v>
+        <v>1297.8732849999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.360520</v>
+        <v>0.36052000000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="N14" s="1">
-        <v>-205.532000</v>
+        <v>-205.53200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1308.143416</v>
+        <v>1308.1434159999999</v>
       </c>
       <c r="Q14" s="1">
         <v>0.363373</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.080000</v>
+        <v>1316.08</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.818000</v>
+        <v>-186.81800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1318.627850</v>
+        <v>1318.6278500000001</v>
       </c>
       <c r="V14" s="1">
         <v>0.366286</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.310000</v>
+        <v>1329.31</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.026000</v>
+        <v>-173.02600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>1329.171309</v>
+        <v>1329.1713090000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.369214</v>
+        <v>0.36921399999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.403000</v>
+        <v>-170.40299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>1339.382691</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.372051</v>
+        <v>0.37205100000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.042000</v>
+        <v>-180.042</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1349.568811</v>
+        <v>1349.5688110000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.374880</v>
+        <v>0.37487999999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.050000</v>
+        <v>1380.05</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.968000</v>
+        <v>-209.96799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>1360.071106</v>
+        <v>1360.0711060000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.377798</v>
+        <v>0.37779800000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.895000</v>
+        <v>-253.89500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>1370.329867</v>
+        <v>1370.3298669999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.380647</v>
+        <v>0.38064700000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1425.890000</v>
+        <v>1425.89</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.296000</v>
+        <v>-314.29599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>1381.350440</v>
+        <v>1381.3504399999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.383708</v>
+        <v>0.38370799999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.839000</v>
+        <v>-366.839</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>1392.720232</v>
+        <v>1392.7202319999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.386867</v>
+        <v>0.38686700000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG14" s="1">
-        <v>-618.252000</v>
+        <v>-618.25199999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>1403.561289</v>
@@ -3745,482 +4161,482 @@
         <v>0.389878</v>
       </c>
       <c r="BK14" s="1">
-        <v>1679.860000</v>
+        <v>1679.86</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1071.870000</v>
+        <v>-1071.8699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>1414.284795</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.392857</v>
+        <v>0.39285700000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1970.630000</v>
+        <v>1970.63</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1862.910000</v>
+        <v>-1862.91</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>1424.873389</v>
+        <v>1424.8733890000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.395798</v>
+        <v>0.39579799999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>2354.010000</v>
+        <v>2354.0100000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2780.780000</v>
+        <v>-2780.78</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>1436.146958</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.398930</v>
+        <v>0.39893000000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2842.560000</v>
+        <v>2842.56</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3786.440000</v>
+        <v>-3786.44</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>1448.505290</v>
+        <v>1448.5052900000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.402363</v>
+        <v>0.40236300000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>4288.790000</v>
+        <v>4288.79</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6222.450000</v>
+        <v>-6222.45</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>1277.308656</v>
+        <v>1277.3086559999999</v>
       </c>
       <c r="B15" s="1">
-        <v>0.354808</v>
+        <v>0.35480800000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="D15" s="1">
-        <v>-312.169000</v>
+        <v>-312.16899999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1287.769250</v>
+        <v>1287.7692500000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.357714</v>
+        <v>0.35771399999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.310000</v>
+        <v>1268.31</v>
       </c>
       <c r="I15" s="1">
-        <v>-269.317000</v>
+        <v>-269.31700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1298.263140</v>
+        <v>1298.26314</v>
       </c>
       <c r="L15" s="1">
-        <v>0.360629</v>
+        <v>0.36062899999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="N15" s="1">
-        <v>-205.775000</v>
+        <v>-205.77500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1308.487143</v>
+        <v>1308.4871430000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.363469</v>
+        <v>0.36346899999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.856000</v>
+        <v>-186.85599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1318.972607</v>
+        <v>1318.9726069999999</v>
       </c>
       <c r="V15" s="1">
-        <v>0.366381</v>
+        <v>0.36638100000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.190000</v>
+        <v>1329.19</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.893000</v>
+        <v>-172.893</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>1329.518520</v>
+        <v>1329.5185200000001</v>
       </c>
       <c r="AA15" s="1">
         <v>0.369311</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.600000</v>
+        <v>1346.6</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.480000</v>
+        <v>-170.48</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>1339.797101</v>
+        <v>1339.7971010000001</v>
       </c>
       <c r="AF15" s="1">
         <v>0.372166</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.033000</v>
+        <v>-180.03299999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1349.987407</v>
+        <v>1349.9874070000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.374997</v>
+        <v>0.37499700000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.040000</v>
+        <v>1380.04</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.927000</v>
+        <v>-209.92699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>1360.380865</v>
+        <v>1360.3808650000001</v>
       </c>
       <c r="AP15" s="1">
         <v>0.377884</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.893000</v>
+        <v>-253.893</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>1370.695877</v>
+        <v>1370.6958770000001</v>
       </c>
       <c r="AU15" s="1">
         <v>0.380749</v>
       </c>
       <c r="AV15" s="1">
-        <v>1425.890000</v>
+        <v>1425.89</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.240000</v>
+        <v>-314.24</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>1381.706596</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.383807</v>
+        <v>0.38380700000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.930000</v>
+        <v>1444.93</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.817000</v>
+        <v>-366.81700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>1393.080823</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.386967</v>
+        <v>0.38696700000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.490000</v>
+        <v>1528.49</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.255000</v>
+        <v>-618.255</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>1404.311768</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.390087</v>
+        <v>0.39008700000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1679.830000</v>
+        <v>1679.83</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1071.730000</v>
+        <v>-1071.73</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>1414.706396</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.392974</v>
+        <v>0.39297399999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1862.950000</v>
+        <v>-1862.95</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>1425.300444</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.395917</v>
+        <v>0.39591700000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2354.250000</v>
+        <v>2354.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2780.260000</v>
+        <v>-2780.26</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>1436.580957</v>
+        <v>1436.5809569999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.399050</v>
+        <v>0.39905000000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2841.930000</v>
+        <v>2841.93</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3786.860000</v>
+        <v>-3786.86</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>1449.054876</v>
+        <v>1449.0548759999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.402515</v>
+        <v>0.40251500000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4270.760000</v>
+        <v>4270.76</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6223.290000</v>
+        <v>-6223.29</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>1277.679135</v>
+        <v>1277.6791350000001</v>
       </c>
       <c r="B16" s="1">
-        <v>0.354911</v>
+        <v>0.35491099999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="D16" s="1">
-        <v>-312.050000</v>
+        <v>-312.05</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1288.113506</v>
+        <v>1288.1135059999999</v>
       </c>
       <c r="G16" s="1">
-        <v>0.357809</v>
+        <v>0.35780899999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.000000</v>
+        <v>1268</v>
       </c>
       <c r="I16" s="1">
-        <v>-269.600000</v>
+        <v>-269.60000000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>1298.609348</v>
       </c>
       <c r="L16" s="1">
-        <v>0.360725</v>
+        <v>0.36072500000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="N16" s="1">
-        <v>-205.946000</v>
+        <v>-205.946</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1308.835535</v>
+        <v>1308.8355349999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.363565</v>
+        <v>0.36356500000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.110000</v>
+        <v>1316.11</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.915000</v>
+        <v>-186.91499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>1319.652088</v>
       </c>
       <c r="V16" s="1">
-        <v>0.366570</v>
+        <v>0.36657000000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.928000</v>
+        <v>-172.928</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>1329.936138</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.369427</v>
+        <v>0.36942700000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.536000</v>
+        <v>-170.536</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1340.071885</v>
+        <v>1340.0718850000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.372242</v>
+        <v>0.37224200000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.027000</v>
+        <v>-180.02699999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>1350.279088</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.375078</v>
+        <v>0.37507800000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.050000</v>
+        <v>1380.05</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.954000</v>
+        <v>-209.95400000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>1360.739682</v>
+        <v>1360.7396819999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.377983</v>
+        <v>0.37798300000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.864000</v>
+        <v>-253.864</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>1371.058948</v>
+        <v>1371.0589480000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.380850</v>
+        <v>0.38085000000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1425.880000</v>
+        <v>1425.88</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.272000</v>
+        <v>-314.27199999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>1382.066165</v>
@@ -4229,270 +4645,270 @@
         <v>0.383907</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.930000</v>
+        <v>1444.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.810000</v>
+        <v>-366.81</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>1393.802534</v>
+        <v>1393.8025339999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.387167</v>
+        <v>0.38716699999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.570000</v>
+        <v>1528.57</v>
       </c>
       <c r="BG16" s="1">
-        <v>-618.221000</v>
+        <v>-618.221</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>1404.712999</v>
+        <v>1404.7129990000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.390198</v>
+        <v>0.39019799999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1679.830000</v>
+        <v>1679.83</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1071.820000</v>
+        <v>-1071.82</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>1415.101707</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.393084</v>
+        <v>0.39308399999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1970.460000</v>
+        <v>1970.46</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1862.780000</v>
+        <v>-1862.78</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>1425.711131</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.396031</v>
+        <v>0.39603100000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2354.120000</v>
+        <v>2354.12</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2779.500000</v>
+        <v>-2779.5</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>1437.312060</v>
+        <v>1437.31206</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.399253</v>
+        <v>0.39925300000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2841.690000</v>
+        <v>2841.69</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3786.720000</v>
+        <v>-3786.72</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>1449.899037</v>
+        <v>1449.8990369999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.402750</v>
+        <v>0.40275</v>
       </c>
       <c r="CE16" s="1">
-        <v>4290.590000</v>
+        <v>4290.59</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6219.250000</v>
+        <v>-6219.25</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>1278.025375</v>
+        <v>1278.0253749999999</v>
       </c>
       <c r="B17" s="1">
-        <v>0.355007</v>
+        <v>0.35500700000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1241.700000</v>
+        <v>1241.7</v>
       </c>
       <c r="D17" s="1">
-        <v>-312.457000</v>
+        <v>-312.45699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>1288.456737</v>
       </c>
       <c r="G17" s="1">
-        <v>0.357905</v>
+        <v>0.35790499999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.000000</v>
+        <v>1268</v>
       </c>
       <c r="I17" s="1">
-        <v>-269.345000</v>
+        <v>-269.34500000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1298.951555</v>
+        <v>1298.9515550000001</v>
       </c>
       <c r="L17" s="1">
-        <v>0.360820</v>
+        <v>0.36081999999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N17" s="1">
-        <v>-205.857000</v>
+        <v>-205.857</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>1309.251974</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.363681</v>
+        <v>0.36368099999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.948000</v>
+        <v>-186.94800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1320.006770</v>
+        <v>1320.00677</v>
       </c>
       <c r="V17" s="1">
-        <v>0.366669</v>
+        <v>0.36666900000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.270000</v>
+        <v>1329.27</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.912000</v>
+        <v>-172.91200000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>1330.227786</v>
+        <v>1330.2277859999999</v>
       </c>
       <c r="AA17" s="1">
         <v>0.369508</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.407000</v>
+        <v>-170.40700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>1340.415130</v>
+        <v>1340.4151300000001</v>
       </c>
       <c r="AF17" s="1">
         <v>0.372338</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.069000</v>
+        <v>-180.06899999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1350.625791</v>
+        <v>1350.6257909999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.375174</v>
+        <v>0.37517400000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.040000</v>
+        <v>1380.04</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.943000</v>
+        <v>-209.94300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>1361.101793</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.378084</v>
+        <v>0.37808399999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.879000</v>
+        <v>-253.87899999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>1371.787571</v>
+        <v>1371.7875710000001</v>
       </c>
       <c r="AU17" s="1">
         <v>0.381052</v>
       </c>
       <c r="AV17" s="1">
-        <v>1425.940000</v>
+        <v>1425.94</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.299000</v>
+        <v>-314.29899999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>1382.784868</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.384107</v>
+        <v>0.38410699999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.859000</v>
+        <v>-366.85899999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>1394.163589</v>
@@ -4501,43 +4917,43 @@
         <v>0.387268</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.510000</v>
+        <v>1528.51</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.245000</v>
+        <v>-618.245</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>1405.087479</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.390302</v>
+        <v>0.39030199999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1679.850000</v>
+        <v>1679.85</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1071.780000</v>
+        <v>-1071.78</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>1415.524297</v>
+        <v>1415.5242969999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.393201</v>
+        <v>0.39320100000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1970.590000</v>
+        <v>1970.59</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1862.700000</v>
+        <v>-1862.7</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>1426.438795</v>
@@ -4546,604 +4962,604 @@
         <v>0.396233</v>
       </c>
       <c r="BU17" s="1">
-        <v>2354.750000</v>
+        <v>2354.75</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2779.150000</v>
+        <v>-2779.15</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>1437.453420</v>
+        <v>1437.4534200000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.399293</v>
+        <v>0.39929300000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2841.640000</v>
+        <v>2841.64</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3786.720000</v>
+        <v>-3786.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>1450.135131</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.402815</v>
+        <v>0.40281499999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4289.820000</v>
+        <v>4289.82</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6219.900000</v>
+        <v>-6219.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>1278.366590</v>
+        <v>1278.3665900000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.355102</v>
+        <v>0.35510199999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>1241.530000</v>
+        <v>1241.53</v>
       </c>
       <c r="D18" s="1">
-        <v>-312.350000</v>
+        <v>-312.35000000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1288.874864</v>
+        <v>1288.8748639999999</v>
       </c>
       <c r="G18" s="1">
-        <v>0.358021</v>
+        <v>0.35802099999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.770000</v>
+        <v>1267.77</v>
       </c>
       <c r="I18" s="1">
-        <v>-269.505000</v>
+        <v>-269.505</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>1299.364724</v>
       </c>
       <c r="L18" s="1">
-        <v>0.360935</v>
+        <v>0.36093500000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.160000</v>
+        <v>1304.1600000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-205.275000</v>
+        <v>-205.27500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1309.544646</v>
+        <v>1309.5446460000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.363762</v>
+        <v>0.36376199999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.120000</v>
+        <v>1316.12</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.939000</v>
+        <v>-186.93899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>1320.350964</v>
       </c>
       <c r="V18" s="1">
-        <v>0.366764</v>
+        <v>0.36676399999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.150000</v>
+        <v>1329.15</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.976000</v>
+        <v>-172.976</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>1330.575018</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.369604</v>
+        <v>0.36960399999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.710000</v>
+        <v>1346.71</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.425000</v>
+        <v>-170.42500000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>1340.758349</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.372433</v>
+        <v>0.37243300000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.052000</v>
+        <v>-180.05199999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1350.975934</v>
+        <v>1350.9759340000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.375271</v>
+        <v>0.37527100000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.020000</v>
+        <v>1380.02</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.936000</v>
+        <v>-209.93600000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>1361.820992</v>
+        <v>1361.8209919999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.378284</v>
+        <v>0.37828400000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.859000</v>
+        <v>-253.85900000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>1372.154147</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.381154</v>
+        <v>0.38115399999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1425.840000</v>
+        <v>1425.84</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.304000</v>
+        <v>-314.30399999999997</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>1383.142981</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.384206</v>
+        <v>0.38420599999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1444.920000</v>
+        <v>1444.92</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.831000</v>
+        <v>-366.83100000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>1394.523189</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.387368</v>
+        <v>0.38736799999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.490000</v>
+        <v>1528.49</v>
       </c>
       <c r="BG18" s="1">
-        <v>-618.230000</v>
+        <v>-618.23</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>1405.771958</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.390492</v>
+        <v>0.39049200000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1679.820000</v>
+        <v>1679.82</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1071.750000</v>
+        <v>-1071.75</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>1416.216249</v>
+        <v>1416.2162490000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.393393</v>
+        <v>0.39339299999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1970.600000</v>
+        <v>1970.6</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1862.690000</v>
+        <v>-1862.69</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>1426.568714</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.396269</v>
+        <v>0.39626899999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>2355.210000</v>
+        <v>2355.21</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2778.620000</v>
+        <v>-2778.62</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>1437.878027</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.399411</v>
+        <v>0.39941100000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2841.820000</v>
+        <v>2841.82</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3787.160000</v>
+        <v>-3787.16</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>1450.656426</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.402960</v>
+        <v>0.40295999999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.850000</v>
+        <v>4274.8500000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6219.980000</v>
+        <v>-6219.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>1278.777278</v>
       </c>
       <c r="B19" s="1">
-        <v>0.355216</v>
+        <v>0.35521599999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1241.730000</v>
+        <v>1241.73</v>
       </c>
       <c r="D19" s="1">
-        <v>-311.879000</v>
+        <v>-311.87900000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1289.149120</v>
+        <v>1289.14912</v>
       </c>
       <c r="G19" s="1">
         <v>0.358097</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.240000</v>
+        <v>1268.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-269.016000</v>
+        <v>-269.01600000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>1299.661859</v>
       </c>
       <c r="L19" s="1">
-        <v>0.361017</v>
+        <v>0.36101699999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.780000</v>
+        <v>1303.78</v>
       </c>
       <c r="N19" s="1">
-        <v>-205.481000</v>
+        <v>-205.48099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1309.893796</v>
+        <v>1309.8937960000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.363859</v>
+        <v>0.36385899999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.100000</v>
+        <v>1316.1</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.972000</v>
+        <v>-186.97200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1320.693717</v>
+        <v>1320.6937170000001</v>
       </c>
       <c r="V19" s="1">
-        <v>0.366859</v>
+        <v>0.36685899999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.990000</v>
+        <v>-172.99</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>1330.924170</v>
+        <v>1330.92417</v>
       </c>
       <c r="AA19" s="1">
         <v>0.369701</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.460000</v>
+        <v>1346.46</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.310000</v>
+        <v>-170.31</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>1341.444315</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.372623</v>
+        <v>0.37262299999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.036000</v>
+        <v>-180.036</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1351.671823</v>
+        <v>1351.6718229999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.375464</v>
+        <v>0.37546400000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.070000</v>
+        <v>1380.07</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.921000</v>
+        <v>-209.92099999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>1362.179071</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.378383</v>
+        <v>0.37838300000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1401.610000</v>
+        <v>1401.61</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.881000</v>
+        <v>-253.881</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>1372.519666</v>
+        <v>1372.5196659999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.381255</v>
+        <v>0.38125500000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1425.880000</v>
+        <v>1425.88</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.269000</v>
+        <v>-314.26900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>1383.501092</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.384306</v>
+        <v>0.38430599999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.890000</v>
+        <v>1444.89</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.804000</v>
+        <v>-366.80399999999997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>1395.189316</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.387553</v>
+        <v>0.38755299999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.500000</v>
+        <v>1528.5</v>
       </c>
       <c r="BG19" s="1">
-        <v>-618.223000</v>
+        <v>-618.22299999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>1405.882598</v>
+        <v>1405.8825979999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.390523</v>
+        <v>0.39052300000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1679.800000</v>
+        <v>1679.8</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1071.670000</v>
+        <v>-1071.67</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>1416.340712</v>
+        <v>1416.3407119999999</v>
       </c>
       <c r="BO19" s="1">
         <v>0.393428</v>
       </c>
       <c r="BP19" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1862.700000</v>
+        <v>-1862.7</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>1426.983370</v>
+        <v>1426.9833699999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.396384</v>
+        <v>0.39638400000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2355.320000</v>
+        <v>2355.3200000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2778.280000</v>
+        <v>-2778.28</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>1438.296123</v>
+        <v>1438.2961230000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.399527</v>
+        <v>0.39952700000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2842.060000</v>
+        <v>2842.06</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3786.120000</v>
+        <v>-3786.12</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>1451.174746</v>
+        <v>1451.1747459999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.403104</v>
+        <v>0.40310400000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>4275.060000</v>
+        <v>4275.0600000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6233.790000</v>
+        <v>-6233.79</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>1279.067934</v>
+        <v>1279.0679339999999</v>
       </c>
       <c r="B20" s="1">
-        <v>0.355297</v>
+        <v>0.35529699999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.740000</v>
+        <v>1241.74</v>
       </c>
       <c r="D20" s="1">
-        <v>-312.153000</v>
+        <v>-312.15300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>1289.496353</v>
       </c>
       <c r="G20" s="1">
-        <v>0.358193</v>
+        <v>0.35819299999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.260000</v>
+        <v>1268.26</v>
       </c>
       <c r="I20" s="1">
-        <v>-269.761000</v>
+        <v>-269.76100000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1300.008569</v>
+        <v>1300.0085690000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.361113</v>
+        <v>0.36111300000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1303.800000</v>
+        <v>1303.8</v>
       </c>
       <c r="N20" s="1">
-        <v>-205.561000</v>
+        <v>-205.56100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>1310.241493</v>
@@ -5152,133 +5568,133 @@
         <v>0.363956</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.130000</v>
+        <v>1316.13</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.820000</v>
+        <v>-186.82</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1321.382630</v>
+        <v>1321.3826300000001</v>
       </c>
       <c r="V20" s="1">
-        <v>0.367051</v>
+        <v>0.36705100000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.240000</v>
+        <v>1329.24</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.955000</v>
+        <v>-172.95500000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1331.620552</v>
+        <v>1331.6205520000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.369895</v>
+        <v>0.36989499999999997</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.580000</v>
+        <v>1346.58</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.331000</v>
+        <v>-170.33099999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>1341.787581</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.372719</v>
+        <v>0.37271900000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.024000</v>
+        <v>-180.024</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1352.022531</v>
+        <v>1352.0225310000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.375562</v>
+        <v>0.37556200000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.040000</v>
+        <v>1380.04</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.966000</v>
+        <v>-209.96600000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>1362.543168</v>
+        <v>1362.5431679999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.378484</v>
+        <v>0.37848399999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.846000</v>
+        <v>-253.846</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>1373.189301</v>
+        <v>1373.1893009999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.381441</v>
+        <v>0.38144099999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>1425.860000</v>
+        <v>1425.86</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.274000</v>
+        <v>-314.274</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>1384.163250</v>
+        <v>1384.1632500000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.384490</v>
+        <v>0.38449</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.890000</v>
+        <v>1444.89</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.845000</v>
+        <v>-366.84500000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>1395.639683</v>
+        <v>1395.6396830000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.387678</v>
+        <v>0.38767800000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.550000</v>
+        <v>1528.55</v>
       </c>
       <c r="BG20" s="1">
-        <v>-618.239000</v>
+        <v>-618.23900000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>1406.241174</v>
@@ -5287,285 +5703,285 @@
         <v>0.390623</v>
       </c>
       <c r="BK20" s="1">
-        <v>1679.780000</v>
+        <v>1679.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1071.750000</v>
+        <v>-1071.75</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>1416.763837</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.393546</v>
+        <v>0.39354600000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1970.410000</v>
+        <v>1970.41</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1862.640000</v>
+        <v>-1862.64</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>1427.414889</v>
+        <v>1427.4148889999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.396504</v>
+        <v>0.39650400000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>2356.000000</v>
+        <v>2356</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2778.220000</v>
+        <v>-2778.22</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>1438.742028</v>
+        <v>1438.7420279999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.399651</v>
+        <v>0.39965099999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2841.120000</v>
+        <v>2841.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3785.950000</v>
+        <v>-3785.95</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>1451.740185</v>
+        <v>1451.7401850000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.403261</v>
+        <v>0.40326099999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4289.730000</v>
+        <v>4289.7299999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6232.270000</v>
+        <v>-6232.27</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>1279.407693</v>
+        <v>1279.4076930000001</v>
       </c>
       <c r="B21" s="1">
-        <v>0.355391</v>
+        <v>0.35539100000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.060000</v>
+        <v>1242.06</v>
       </c>
       <c r="D21" s="1">
-        <v>-312.134000</v>
+        <v>-312.13400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1289.842062</v>
+        <v>1289.8420619999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.358289</v>
+        <v>0.35828900000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.250000</v>
+        <v>1268.25</v>
       </c>
       <c r="I21" s="1">
-        <v>-269.285000</v>
+        <v>-269.28500000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>1300.356225</v>
       </c>
       <c r="L21" s="1">
-        <v>0.361210</v>
+        <v>0.36120999999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-205.669000</v>
+        <v>-205.66900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1310.937875</v>
+        <v>1310.9378750000001</v>
       </c>
       <c r="Q21" s="1">
         <v>0.364149</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.160000</v>
+        <v>1316.16</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.812000</v>
+        <v>-186.81200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1321.726390</v>
+        <v>1321.72639</v>
       </c>
       <c r="V21" s="1">
-        <v>0.367146</v>
+        <v>0.36714599999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.220000</v>
+        <v>1329.22</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.996000</v>
+        <v>-172.99600000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>1331.972712</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.369992</v>
+        <v>0.36999199999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.510000</v>
+        <v>1346.51</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.311000</v>
+        <v>-170.31100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1342.131782</v>
+        <v>1342.1317819999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.372814</v>
+        <v>0.37281399999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.490000</v>
+        <v>1359.49</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.001000</v>
+        <v>-180.001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1352.674269</v>
+        <v>1352.6742690000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.375743</v>
+        <v>0.37574299999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.030000</v>
+        <v>1380.03</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.944000</v>
+        <v>-209.94399999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>1363.206784</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.378669</v>
+        <v>0.37866899999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.570000</v>
+        <v>1401.57</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.858000</v>
+        <v>-253.858</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>1373.611361</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.381559</v>
+        <v>0.38155899999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1425.900000</v>
+        <v>1425.9</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.266000</v>
+        <v>-314.26600000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>1384.577906</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.384605</v>
+        <v>0.38460499999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.920000</v>
+        <v>1444.92</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.799000</v>
+        <v>-366.79899999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>1396.000785</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.387778</v>
+        <v>0.38777800000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.530000</v>
+        <v>1528.53</v>
       </c>
       <c r="BG21" s="1">
-        <v>-618.193000</v>
+        <v>-618.19299999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>1406.615653</v>
+        <v>1406.6156530000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.390727</v>
+        <v>0.39072699999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1679.760000</v>
+        <v>1679.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1071.780000</v>
+        <v>-1071.78</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>1417.160631</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.393656</v>
+        <v>0.39365600000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1970.370000</v>
+        <v>1970.37</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1862.660000</v>
+        <v>-1862.66</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>1427.842441</v>
@@ -5574,195 +5990,195 @@
         <v>0.396623</v>
       </c>
       <c r="BU21" s="1">
-        <v>2356.500000</v>
+        <v>2356.5</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2777.810000</v>
+        <v>-2777.81</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>1439.162667</v>
+        <v>1439.1626670000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.399767</v>
+        <v>0.39976699999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2841.340000</v>
+        <v>2841.34</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3786.040000</v>
+        <v>-3786.04</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>1452.211431</v>
+        <v>1452.2114309999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.403392</v>
+        <v>0.40339199999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>4286.860000</v>
+        <v>4286.8599999999997</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6236.580000</v>
+        <v>-6236.58</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>1279.749934</v>
+        <v>1279.7499339999999</v>
       </c>
       <c r="B22" s="1">
-        <v>0.355486</v>
+        <v>0.35548600000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1241.850000</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-312.232000</v>
+        <v>-312.23200000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>1290.531504</v>
       </c>
       <c r="G22" s="1">
-        <v>0.358481</v>
+        <v>0.35848099999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.830000</v>
+        <v>1267.83</v>
       </c>
       <c r="I22" s="1">
-        <v>-269.384000</v>
+        <v>-269.38400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>1301.049136</v>
+        <v>1301.0491360000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.361403</v>
+        <v>0.36140299999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="N22" s="1">
-        <v>-205.768000</v>
+        <v>-205.768</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>1311.288548</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.364247</v>
+        <v>0.36424699999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.160000</v>
+        <v>1316.16</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.859000</v>
+        <v>-186.85900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1322.070613</v>
+        <v>1322.0706130000001</v>
       </c>
       <c r="V22" s="1">
-        <v>0.367242</v>
+        <v>0.36724200000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.270000</v>
+        <v>1329.27</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.851000</v>
+        <v>-172.851</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>1332.320443</v>
+        <v>1332.3204430000001</v>
       </c>
       <c r="AA22" s="1">
         <v>0.370089</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.380000</v>
+        <v>1346.38</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.255000</v>
+        <v>-170.255</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>1342.773624</v>
+        <v>1342.7736239999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.372993</v>
+        <v>0.37299300000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.061000</v>
+        <v>-180.06100000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1353.065580</v>
+        <v>1353.06558</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.375852</v>
+        <v>0.37585200000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.010000</v>
+        <v>1380.01</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.969000</v>
+        <v>-209.96899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>1363.653678</v>
+        <v>1363.6536779999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.378793</v>
+        <v>0.37879299999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.838000</v>
+        <v>-253.83799999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>1373.975958</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.381660</v>
+        <v>0.38166</v>
       </c>
       <c r="AV22" s="1">
-        <v>1425.910000</v>
+        <v>1425.91</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.283000</v>
+        <v>-314.28300000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>1384.962839</v>
@@ -5771,210 +6187,210 @@
         <v>0.384712</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.880000</v>
+        <v>1444.88</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.810000</v>
+        <v>-366.81</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>1396.362851</v>
+        <v>1396.3628510000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.387879</v>
+        <v>0.38787899999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.530000</v>
+        <v>1528.53</v>
       </c>
       <c r="BG22" s="1">
-        <v>-618.185000</v>
+        <v>-618.18499999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>1407.033286</v>
+        <v>1407.0332860000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>0.390843</v>
       </c>
       <c r="BK22" s="1">
-        <v>1679.710000</v>
+        <v>1679.71</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1071.680000</v>
+        <v>-1071.68</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>1417.590135</v>
+        <v>1417.5901349999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.393775</v>
+        <v>0.39377499999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1970.490000</v>
+        <v>1970.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1862.580000</v>
+        <v>-1862.58</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>1428.255112</v>
+        <v>1428.2551120000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.396738</v>
+        <v>0.39673799999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2357.000000</v>
+        <v>2357</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2777.620000</v>
+        <v>-2777.62</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>1439.586713</v>
+        <v>1439.5867129999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.399885</v>
+        <v>0.39988499999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2841.480000</v>
+        <v>2841.48</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3785.920000</v>
+        <v>-3785.92</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>1452.761944</v>
+        <v>1452.7619440000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.403545</v>
+        <v>0.40354499999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4273.380000</v>
+        <v>4273.38</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6230.890000</v>
+        <v>-6230.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>1280.430940</v>
+        <v>1280.43094</v>
       </c>
       <c r="B23" s="1">
-        <v>0.355675</v>
+        <v>0.35567500000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1241.920000</v>
+        <v>1241.92</v>
       </c>
       <c r="D23" s="1">
-        <v>-312.167000</v>
+        <v>-312.16699999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>1290.873742</v>
       </c>
       <c r="G23" s="1">
-        <v>0.358576</v>
+        <v>0.35857600000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.040000</v>
+        <v>1268.04</v>
       </c>
       <c r="I23" s="1">
-        <v>-269.250000</v>
+        <v>-269.25</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1301.392864</v>
+        <v>1301.3928639999999</v>
       </c>
       <c r="L23" s="1">
-        <v>0.361498</v>
+        <v>0.36149799999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1303.910000</v>
+        <v>1303.9100000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-205.452000</v>
+        <v>-205.452</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1311.637235</v>
+        <v>1311.6372349999999</v>
       </c>
       <c r="Q23" s="1">
         <v>0.364344</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.140000</v>
+        <v>1316.14</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.948000</v>
+        <v>-186.94800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1322.722820</v>
+        <v>1322.72282</v>
       </c>
       <c r="V23" s="1">
         <v>0.367423</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.260000</v>
+        <v>1329.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.875000</v>
+        <v>-172.875</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1332.983237</v>
+        <v>1332.9832369999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.370273</v>
+        <v>0.37027300000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.500000</v>
+        <v>1346.5</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.421000</v>
+        <v>-170.42099999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>1343.160971</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.373100</v>
+        <v>0.37309999999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.400000</v>
+        <v>1359.4</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.036000</v>
+        <v>-180.036</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>1353.412779</v>
@@ -5983,330 +6399,330 @@
         <v>0.375948</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.030000</v>
+        <v>1380.03</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.945000</v>
+        <v>-209.94499999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>1364.015265</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.378893</v>
+        <v>0.37889299999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.630000</v>
+        <v>1401.63</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.868000</v>
+        <v>-253.86799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>1374.342992</v>
+        <v>1374.3429920000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.381762</v>
+        <v>0.38176199999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1425.860000</v>
+        <v>1425.86</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.248000</v>
+        <v>-314.24799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>1385.324890</v>
+        <v>1385.3248900000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.384812</v>
+        <v>0.38481199999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1444.890000</v>
+        <v>1444.89</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.799000</v>
+        <v>-366.79899999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>1396.792882</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.387998</v>
+        <v>0.38799800000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.520000</v>
+        <v>1528.52</v>
       </c>
       <c r="BG23" s="1">
-        <v>-618.209000</v>
+        <v>-618.20899999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>1407.366132</v>
+        <v>1407.3661320000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.390935</v>
+        <v>0.39093499999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1679.810000</v>
+        <v>1679.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1071.670000</v>
+        <v>-1071.67</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>1417.981479</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.393884</v>
+        <v>0.39388400000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1970.460000</v>
+        <v>1970.46</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1862.630000</v>
+        <v>-1862.63</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1428.684648</v>
+        <v>1428.6846479999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.396857</v>
+        <v>0.39685700000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2357.530000</v>
+        <v>2357.5300000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2778.030000</v>
+        <v>-2778.03</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>1440.022717</v>
+        <v>1440.0227170000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.400006</v>
+        <v>0.40000599999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2841.480000</v>
+        <v>2841.48</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3786.790000</v>
+        <v>-3786.79</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>1453.289691</v>
+        <v>1453.2896909999999</v>
       </c>
       <c r="CD23" s="1">
         <v>0.403692</v>
       </c>
       <c r="CE23" s="1">
-        <v>4287.360000</v>
+        <v>4287.3599999999997</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6232.400000</v>
+        <v>-6232.4</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>1280.778141</v>
       </c>
       <c r="B24" s="1">
-        <v>0.355772</v>
+        <v>0.35577199999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.140000</v>
+        <v>1242.1400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-312.162000</v>
+        <v>-312.16199999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1291.211502</v>
+        <v>1291.2115020000001</v>
       </c>
       <c r="G24" s="1">
-        <v>0.358670</v>
+        <v>0.35866999999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.870000</v>
+        <v>1267.8699999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-269.124000</v>
+        <v>-269.12400000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1301.740559</v>
+        <v>1301.7405590000001</v>
       </c>
       <c r="L24" s="1">
         <v>0.361595</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.190000</v>
+        <v>1304.19</v>
       </c>
       <c r="N24" s="1">
-        <v>-205.539000</v>
+        <v>-205.53899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1312.285012</v>
+        <v>1312.2850120000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.364524</v>
+        <v>0.36452400000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.030000</v>
+        <v>1316.03</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.953000</v>
+        <v>-186.953</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>1323.102261</v>
       </c>
       <c r="V24" s="1">
-        <v>0.367528</v>
+        <v>0.36752800000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.300000</v>
+        <v>1329.3</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.867000</v>
+        <v>-172.86699999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>1333.365510</v>
+        <v>1333.3655100000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.370379</v>
+        <v>0.37037900000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.610000</v>
+        <v>1346.61</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.419000</v>
+        <v>-170.41900000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>1343.504232</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.373196</v>
+        <v>0.37319600000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.410000</v>
+        <v>1359.41</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.058000</v>
+        <v>-180.05799999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>1353.763451</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.376045</v>
+        <v>0.37604500000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.020000</v>
+        <v>1380.02</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.981000</v>
+        <v>-209.98099999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>1364.374365</v>
+        <v>1364.3743649999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.378993</v>
+        <v>0.37899300000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.859000</v>
+        <v>-253.85900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>1374.758147</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.381877</v>
+        <v>0.38187700000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1425.880000</v>
+        <v>1425.88</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.234000</v>
+        <v>-314.23399999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>1386.047057</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.385013</v>
+        <v>0.38501299999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.910000</v>
+        <v>1444.91</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.819000</v>
+        <v>-366.81900000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>1397.085523</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.388079</v>
+        <v>0.38807900000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.490000</v>
+        <v>1528.49</v>
       </c>
       <c r="BG24" s="1">
-        <v>-618.200000</v>
+        <v>-618.20000000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>1407.764885</v>
@@ -6315,58 +6731,58 @@
         <v>0.391046</v>
       </c>
       <c r="BK24" s="1">
-        <v>1679.750000</v>
+        <v>1679.75</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1071.730000</v>
+        <v>-1071.73</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>1418.398117</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.393999</v>
+        <v>0.39399899999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1970.450000</v>
+        <v>1970.45</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1862.630000</v>
+        <v>-1862.63</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>1429.115210</v>
+        <v>1429.1152099999999</v>
       </c>
       <c r="BT24" s="1">
         <v>0.396976</v>
       </c>
       <c r="BU24" s="1">
-        <v>2357.830000</v>
+        <v>2357.83</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2778.580000</v>
+        <v>-2778.58</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>1440.468131</v>
+        <v>1440.4681310000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.400130</v>
+        <v>0.40012999999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2842.330000</v>
+        <v>2842.33</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3786.240000</v>
+        <v>-3786.24</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>1453.811479</v>
@@ -6375,90 +6791,90 @@
         <v>0.403837</v>
       </c>
       <c r="CE24" s="1">
-        <v>4281.360000</v>
+        <v>4281.3599999999997</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6214.580000</v>
+        <v>-6214.58</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>1281.117931</v>
       </c>
       <c r="B25" s="1">
-        <v>0.355866</v>
+        <v>0.35586600000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1241.900000</v>
+        <v>1241.9000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-312.209000</v>
+        <v>-312.209</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>1291.887532</v>
       </c>
       <c r="G25" s="1">
-        <v>0.358858</v>
+        <v>0.35885800000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.790000</v>
+        <v>1267.79</v>
       </c>
       <c r="I25" s="1">
-        <v>-269.394000</v>
+        <v>-269.39400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>1302.393329</v>
       </c>
       <c r="L25" s="1">
-        <v>0.361776</v>
+        <v>0.36177599999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N25" s="1">
-        <v>-205.408000</v>
+        <v>-205.40799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1312.681314</v>
+        <v>1312.6813139999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.364634</v>
+        <v>0.36463400000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.070000</v>
+        <v>1316.07</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.878000</v>
+        <v>-186.87799999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>1323.444500</v>
+        <v>1323.4445000000001</v>
       </c>
       <c r="V25" s="1">
-        <v>0.367623</v>
+        <v>0.36762299999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.250000</v>
+        <v>1329.25</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.850000</v>
+        <v>-172.85</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>1333.716645</v>
@@ -6467,88 +6883,88 @@
         <v>0.370477</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.630000</v>
+        <v>1346.63</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.603000</v>
+        <v>-170.60300000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1343.848920</v>
+        <v>1343.8489199999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.373291</v>
+        <v>0.37329099999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.023000</v>
+        <v>-180.023</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>1354.175658</v>
+        <v>1354.1756580000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.376160</v>
+        <v>0.37615999999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.020000</v>
+        <v>1380.02</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.925000</v>
+        <v>-209.92500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>1364.779596</v>
+        <v>1364.7795960000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.379105</v>
+        <v>0.37910500000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.858000</v>
+        <v>-253.858</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>1375.069103</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.381964</v>
+        <v>0.38196400000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>1425.860000</v>
+        <v>1425.86</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.207000</v>
+        <v>-314.20699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>1386.422527</v>
+        <v>1386.4225269999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.385117</v>
+        <v>0.38511699999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.860000</v>
+        <v>1444.86</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.806000</v>
+        <v>-366.80599999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>1397.444129</v>
@@ -6557,210 +6973,210 @@
         <v>0.388179</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.500000</v>
+        <v>1528.5</v>
       </c>
       <c r="BG25" s="1">
-        <v>-618.186000</v>
+        <v>-618.18600000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>1408.139860</v>
+        <v>1408.13986</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.391150</v>
+        <v>0.39115</v>
       </c>
       <c r="BK25" s="1">
-        <v>1679.770000</v>
+        <v>1679.77</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1071.730000</v>
+        <v>-1071.73</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>1418.966037</v>
+        <v>1418.9660369999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.394157</v>
+        <v>0.39415699999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1970.420000</v>
+        <v>1970.42</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1862.570000</v>
+        <v>-1862.57</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>1429.528344</v>
+        <v>1429.5283440000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.397091</v>
+        <v>0.39709100000000003</v>
       </c>
       <c r="BU25" s="1">
-        <v>2358.230000</v>
+        <v>2358.23</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2778.420000</v>
+        <v>-2778.42</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>1440.888749</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.400247</v>
+        <v>0.40024700000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2841.260000</v>
+        <v>2841.26</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3785.420000</v>
+        <v>-3785.42</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>1454.348150</v>
+        <v>1454.34815</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.403986</v>
+        <v>0.40398600000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.560000</v>
+        <v>4273.5600000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6235.870000</v>
+        <v>-6235.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>1281.769146</v>
+        <v>1281.7691460000001</v>
       </c>
       <c r="B26" s="1">
         <v>0.356047</v>
       </c>
       <c r="C26" s="1">
-        <v>1241.740000</v>
+        <v>1241.74</v>
       </c>
       <c r="D26" s="1">
-        <v>-311.854000</v>
+        <v>-311.85399999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1292.255102</v>
+        <v>1292.2551020000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.358960</v>
+        <v>0.35896</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.070000</v>
+        <v>1268.07</v>
       </c>
       <c r="I26" s="1">
-        <v>-269.290000</v>
+        <v>-269.29000000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>1302.777695</v>
       </c>
       <c r="L26" s="1">
-        <v>0.361883</v>
+        <v>0.36188300000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="N26" s="1">
-        <v>-205.325000</v>
+        <v>-205.32499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>1313.032977</v>
+        <v>1313.0329770000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.364731</v>
+        <v>0.36473100000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.070000</v>
+        <v>1316.07</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.841000</v>
+        <v>-186.84100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>1323.789218</v>
+        <v>1323.7892179999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.367719</v>
+        <v>0.36771900000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.200000</v>
+        <v>1329.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.880000</v>
+        <v>-172.88</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>1334.064838</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.370574</v>
+        <v>0.37057400000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.450000</v>
+        <v>1346.45</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.626000</v>
+        <v>-170.626</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>1344.258615</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.373405</v>
+        <v>0.37340499999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.974000</v>
+        <v>-179.97399999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>1354.459835</v>
+        <v>1354.4598350000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.376239</v>
+        <v>0.37623899999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.040000</v>
+        <v>1380.04</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.933000</v>
+        <v>-209.93299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>1365.095548</v>
@@ -6769,103 +7185,103 @@
         <v>0.379193</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.570000</v>
+        <v>1401.57</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.905000</v>
+        <v>-253.905</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>1375.435678</v>
+        <v>1375.4356780000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.382065</v>
+        <v>0.38206499999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1425.860000</v>
+        <v>1425.86</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.268000</v>
+        <v>-314.26799999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>1386.813375</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.385226</v>
+        <v>0.38522600000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.789000</v>
+        <v>-366.78899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>1397.804720</v>
+        <v>1397.8047200000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.388279</v>
+        <v>0.38827899999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.470000</v>
+        <v>1528.47</v>
       </c>
       <c r="BG26" s="1">
-        <v>-618.181000</v>
+        <v>-618.18100000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>1408.890802</v>
+        <v>1408.8908019999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.391359</v>
+        <v>0.39135900000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1679.740000</v>
+        <v>1679.74</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1071.590000</v>
+        <v>-1071.5899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>1419.221478</v>
+        <v>1419.2214779999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.394228</v>
+        <v>0.39422800000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1970.390000</v>
+        <v>1970.39</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1862.550000</v>
+        <v>-1862.55</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>1429.954935</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.397210</v>
+        <v>0.39721000000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2358.580000</v>
+        <v>2358.58</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2779.190000</v>
+        <v>-2779.19</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>1441.311831</v>
@@ -6874,13 +7290,13 @@
         <v>0.400364</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2841.200000</v>
+        <v>2841.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3786.060000</v>
+        <v>-3786.06</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>1455.194821</v>
@@ -6889,15 +7305,16 @@
         <v>0.404221</v>
       </c>
       <c r="CE26" s="1">
-        <v>4274.370000</v>
+        <v>4274.37</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6214.070000</v>
+        <v>-6214.07</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>